--- a/biology/Écologie/Forêts_d'altitude_du_rift_Albertin/Forêts_d'altitude_du_rift_Albertin.xlsx
+++ b/biology/Écologie/Forêts_d'altitude_du_rift_Albertin/Forêts_d'altitude_du_rift_Albertin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorégion des forêts d'altitude du rift Albertin appartient au biome des forêts décidues humides tropicales et subtropicales et se situe au cœur de l'afromontane tropicale du centre de l'Afrique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,49 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La haute forêt d'afromontane couvre les zones ouest du Rwanda et du Burundi, la bordure est de la République démocratique du Congo et des parties de l'ouest de l'Ouganda et de la Tanzanie. Cette zone occupe le rift Albertin, branche occidentale de la vallée du Grand Rift. Elle comprend le plateau de Lendu en Ouganda (la forêt y a presque disparu), les montagnes des Virunga et la chaîne du Rwenzori qui s'étendent au Rwanda, en Ouganda et en République démocratique du Congo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La haute forêt d'afromontane couvre les zones ouest du Rwanda et du Burundi, la bordure est de la République démocratique du Congo et des parties de l'ouest de l'Ouganda et de la Tanzanie. Cette zone occupe le rift Albertin, branche occidentale de la vallée du Grand Rift. Elle comprend le plateau de Lendu en Ouganda (la forêt y a presque disparu), les montagnes des Virunga et la chaîne du Rwenzori qui s'étendent au Rwanda, en Ouganda et en République démocratique du Congo.
 Vers les plus hauts sommets, qui se trouvent dans la chaîne du Rwenzori et des Virunga, à plus de 3 000 m, on trouve la zone de transition vers l'écorégion afroalpine des Landes d'altitude de Rwenzori-Virunga ; elle inclut les monts Stanley et Karisimbi. Le plus haut sommet du Burundi, le mont Heha, se trouve aussi dans cette écorégion.
-Zones urbaines et peuplements humains
-Les principales zones habitées sont les suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zones urbaines et peuplements humains</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les principales zones habitées sont les suivantes :
 En Ouganda, la ville de Fort Portal, point de départ des visiteurs venant voir les chimpanzés du parc national de Kibale et visiter les montagnes de Ruwenzori dans le nord.
 Au Rwanda, la ville de Ruhengeri près du parc national des volcans ; les villes de Gisenyi et Kibuye, sur les rives du lac Kivu, servant de base pour des croisières sur le lac ; Cyangugu, servant de base pour les observations de primates dans le parc national de Nyungwe.
 En République démocratique du Congo, la ville de Goma, point de départ pour les visiteurs du parc national des Virunga et Bukavu, proche du parc national de Kahuzi-Biega qui est le principal refuge des gorilles des montagnes, menacés par la deuxième guerre du Congo.
@@ -524,48 +573,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>For%C3%AAts_d%27altitude_du_rift_Albertin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Écologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_d%27altitude_du_rift_Albertin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Flore et faune</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts humides de l'écorégion ont un climat plus doux que celui de la forêt du bassin du Congo ou que celui des savanes d'Ouganda, du Rwanda et du Burundi ; elles abritent une grande variété de flore et de faune d'afromontane. Les forêts d'altitude du rift Albertin font partie de la liste dite « Global 200 » des 238 régions écologiques définies comme étant les plus représentatives des principaux types d'habitats terrestres, marins, et d'eau douce.
-Le gorille des montagnes, en grand danger d'extinction, ne survit que dans cette écorégion, à l'instar du Cercopithèque de l'Hœst, du Cercopithèque de Hamlyn ainsi que de beaucoup d'espèces endémiques de papillons et d'oiseaux, tels que le Graueria vittata, le Muscicapa lendu et le Touraco du Rwenzori. L'amphibien Xenopus lenduensis est endémique du plateau Lendu.
-Préservation
-Une grande partie de la forêt a été défrichée pour les besoins de l'agriculture et de l'exploitation forestière, particulièrement au Rwanda et au Burundi, zone de peuplement dense. De vastes étendues subsistent cependant aux plus hautes altitudes dans les montagnes des Virunga, le massif d'Itombwe et les monts Rwenzori. La déforestation en cours est la principale menace écologique de la région.
-L'histoire politique violente de la région à l'époque contemporaine a aussi causé des dommages écologiques, par exemple en contribuant à l'élimination de la population des éléphants de savane du parc national des Virunga en République démocratique du Congo.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +594,84 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts humides de l'écorégion ont un climat plus doux que celui de la forêt du bassin du Congo ou que celui des savanes d'Ouganda, du Rwanda et du Burundi ; elles abritent une grande variété de flore et de faune d'afromontane. Les forêts d'altitude du rift Albertin font partie de la liste dite « Global 200 » des 238 régions écologiques définies comme étant les plus représentatives des principaux types d'habitats terrestres, marins, et d'eau douce.
+Le gorille des montagnes, en grand danger d'extinction, ne survit que dans cette écorégion, à l'instar du Cercopithèque de l'Hœst, du Cercopithèque de Hamlyn ainsi que de beaucoup d'espèces endémiques de papillons et d'oiseaux, tels que le Graueria vittata, le Muscicapa lendu et le Touraco du Rwenzori. L'amphibien Xenopus lenduensis est endémique du plateau Lendu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Flore et faune</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Préservation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie de la forêt a été défrichée pour les besoins de l'agriculture et de l'exploitation forestière, particulièrement au Rwanda et au Burundi, zone de peuplement dense. De vastes étendues subsistent cependant aux plus hautes altitudes dans les montagnes des Virunga, le massif d'Itombwe et les monts Rwenzori. La déforestation en cours est la principale menace écologique de la région.
+L'histoire politique violente de la région à l'époque contemporaine a aussi causé des dommages écologiques, par exemple en contribuant à l'élimination de la population des éléphants de savane du parc national des Virunga en République démocratique du Congo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Forêts_d'altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/For%C3%AAts_d%27altitude_du_rift_Albertin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Tourisme et loisirs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les activités de tourisme et loisirs dans l'écorégion portent sur l'observation des gorilles de montagne dans la zone de conservation des Virunga (434 km2) qui comprend :
 le parc national de la forêt impénétrable de Bwindi, en Ouganda ;
